--- a/TodaySchedule.xlsx
+++ b/TodaySchedule.xlsx
@@ -16,55 +16,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>phoneno</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aptTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aptDay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vickie Rocha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kingtony@chang.biz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>145-109-2047</x:t>
-  </x:si>
-  <x:si>
-    <x:t>07:59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16/10/2025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>na</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elizabeth Hicks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lindseyyork@webster.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>975-857-4793</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22:53</x:t>
+    <x:t>PatientID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PatientName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PreferredDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PreferredTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Doctor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Phone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AppointmentID</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -415,13 +391,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G3"/>
+  <x:dimension ref="A1:I1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:9">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -443,51 +419,11 @@
       <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7">
-      <x:c r="A2" s="0">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="I1" s="0" t="s">
         <x:v>8</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7">
-      <x:c r="A3" s="0">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
